--- a/static/plugins/模板.xlsx
+++ b/static/plugins/模板.xlsx
@@ -9,12 +9,44 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>liuhy</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t>liuhy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+0是5分钟合并，1是t+1合并</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>表名称</t>
   </si>
@@ -30,18 +62,6 @@
   <si>
     <t>合并周期</t>
   </si>
-  <si>
-    <t>4407_wk_db_auth_wk_black_zhishu_log1</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insert OVERWRITE TABLE 4407_wk_db_auth_wk_black_zhishu_log select   id,task_id,customer_id,mobile,pro_id,callback_status,frms_credit_level,frms_notify_policy,frms_refuse_result,request_time,callback_time,create_time,update_time,tenant_id  from(    SELECT  ROW_NUMBER () OVER ( PARTITION BY t.id ORDER BY record_id DESC, after_flag DESC ) AS ROW_NUMBER    ,*    FROM    (      SELECT incr.record_id ,      incr.operation_flag,      incr.after_flag,      incr.id,incr.task_id,incr.customer_id,incr.mobile,incr.pro_id,incr.callback_status,incr.frms_credit_level,incr.frms_notify_policy,incr.frms_refuse_result,incr.request_time,incr.callback_time,incr.create_time,incr.update_time,incr.tenant_id      FROM    4407_wk_db_auth_wk_black_zhishu_log_log incr      WHERE    modifytime_year = '{year}' and modifytime_month ='{month}' and modifytime_day='{day}'             UNION ALL      SELECT  0 AS record_id      ,'I' AS operation_flag      ,'Y' AS after_flag      ,base.*      FROM    4407_wk_db_auth_wk_black_zhishu_log base    ) t  ) gt  WHERE   after_flag = 'Y'  AND     ROW_NUMBER = 1 ;</t>
-  </si>
-  <si>
-    <t>prod_wanka</t>
-  </si>
 </sst>
 </file>
 
@@ -50,8 +70,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,15 +90,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +111,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -100,104 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -206,8 +173,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,8 +439,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,21 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,199 +533,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1002,7 +1019,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1031,31 +1048,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="247" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E27">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>